--- a/MappaGioco/Tileset/Stanze/1-PianoTerra/Fisica/enigmi/enigmiFisica.xlsx
+++ b/MappaGioco/Tileset/Stanze/1-PianoTerra/Fisica/enigmi/enigmiFisica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rva3s\Desktop\ScuolaAlek\gpoi\TheLostKeys\MappaGioco\Tileset\Stanze\1-PianoTerra\Fisica\enigmi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CADF094-1AA5-4EAB-A305-4BFCDA7A6AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754E5C31-A39F-4D27-9046-9318AC618834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512F7655-9C81-462C-9C1B-46AE30AF06F0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Tipo Enigma</t>
   </si>
@@ -43,15 +43,9 @@
     <t>Personaggio</t>
   </si>
   <si>
-    <t>Enigma</t>
-  </si>
-  <si>
     <t>Suggerimento</t>
   </si>
   <si>
-    <t>Scelta</t>
-  </si>
-  <si>
     <t>Risposta Esatta(punti)</t>
   </si>
   <si>
@@ -61,18 +55,6 @@
     <t>Risposta 3 tentativo(punti)</t>
   </si>
   <si>
-    <t>Ultimo Tentativo(secondi)</t>
-  </si>
-  <si>
-    <t>Risposta Suggerita(secondi)</t>
-  </si>
-  <si>
-    <t>Risposta Singola</t>
-  </si>
-  <si>
-    <t>“Testo”</t>
-  </si>
-  <si>
     <t>Prof. Fulchero</t>
   </si>
   <si>
@@ -80,13 +62,52 @@
   </si>
   <si>
     <t>immagine lettera 'O'</t>
+  </si>
+  <si>
+    <t>Introduzione</t>
+  </si>
+  <si>
+    <t>Scelta-1</t>
+  </si>
+  <si>
+    <t>Scelta-2</t>
+  </si>
+  <si>
+    <t>Scelta-3</t>
+  </si>
+  <si>
+    <t>Scelta-4</t>
+  </si>
+  <si>
+    <t>Soluzione</t>
+  </si>
+  <si>
+    <t>Difficoltà</t>
+  </si>
+  <si>
+    <t>Scelta Multipla</t>
+  </si>
+  <si>
+    <t>Facile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O ' </t>
+  </si>
+  <si>
+    <t>"La radiazione!"</t>
+  </si>
+  <si>
+    <t>"Il vuoto"</t>
+  </si>
+  <si>
+    <t>"L'atmosfera"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,12 +116,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -194,6 +209,25 @@
     </font>
     <font>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -275,40 +309,50 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="2" xr:uid="{FDEC6265-780A-498A-997B-F4B5FBE3D915}"/>
@@ -642,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9C4F3B-E8D1-46DF-824B-1C7230C10519}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,17 +698,22 @@
     <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
     <col min="8" max="8" width="39.5703125" customWidth="1"/>
     <col min="9" max="9" width="43.140625" customWidth="1"/>
     <col min="10" max="10" width="53.5703125" customWidth="1"/>
     <col min="11" max="11" width="50" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" customWidth="1"/>
+    <col min="12" max="12" width="69" customWidth="1"/>
+    <col min="13" max="13" width="58.28515625" customWidth="1"/>
+    <col min="14" max="14" width="58.85546875" customWidth="1"/>
+    <col min="15" max="15" width="54.85546875" customWidth="1"/>
+    <col min="16" max="16" width="67.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,61 +721,100 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>3</v>
+      </c>
+      <c r="O2" s="3">
+        <v>4</v>
+      </c>
+      <c r="P2" s="3">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3">
-        <v>-45</v>
-      </c>
-      <c r="J2" s="3">
-        <v>-20</v>
-      </c>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
